--- a/тест кейс.xlsx
+++ b/тест кейс.xlsx
@@ -16,22 +16,28 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>ID</t>
   </si>
   <si>
-    <t>Поиск рецепта пиццы в  поисковой системе Яндекс</t>
-  </si>
-  <si>
     <t>Pre conditions</t>
   </si>
   <si>
     <t>PRODUCTION</t>
   </si>
   <si>
-    <r>
-      <t>1.</t>
+    <t>STEPS</t>
+  </si>
+  <si>
+    <t>DATA</t>
+  </si>
+  <si>
+    <t>EXPECTED RESULT</t>
+  </si>
+  <si>
+    <r>
+      <t>3.</t>
     </r>
     <r>
       <rPr>
@@ -52,31 +58,12 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Запуск поисковой системы Яндекс осуществляется через веб-браузер Google Chrome</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF333333"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t> </t>
-    </r>
-  </si>
-  <si>
-    <t>STEPS</t>
-  </si>
-  <si>
-    <t>DATA</t>
-  </si>
-  <si>
-    <t>EXPECTED RESULT</t>
-  </si>
-  <si>
-    <r>
-      <t>1.</t>
+      <t>Нажимаем на Enter</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>-</t>
     </r>
     <r>
       <rPr>
@@ -86,7 +73,7 @@
         <family val="1"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve">       </t>
+      <t xml:space="preserve">          </t>
     </r>
     <r>
       <rPr>
@@ -97,17 +84,59 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Открываем  веб-браузер Google Chrome</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF333333"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
       <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>Post conditions</t>
+  </si>
+  <si>
+    <t>ТЕСТ-КЕЙС</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>Проверка функционала поискового движка на корректность поика данных</t>
+  </si>
+  <si>
+    <r>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>В базе создать некоторое колличество записей соответствующим поиску.                 2. Открыть главную страницу</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">       </t>
     </r>
     <r>
       <rPr>
@@ -118,25 +147,31 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <r>
-      <t>Открывается главная страница  веб-браузера Google Chrome</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF333333"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t> </t>
+      <t xml:space="preserve"> Ввести поисковых запос</t>
+    </r>
+  </si>
+  <si>
+    <t>Рецепт пиццы</t>
+  </si>
+  <si>
+    <t>Данные введены корректно</t>
+  </si>
+  <si>
+    <t>На поисковой странице появиись релевантные запросы.</t>
+  </si>
+  <si>
+    <r>
+      <t>2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">       </t>
     </r>
     <r>
       <rPr>
@@ -147,12 +182,12 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>2.</t>
+      <t>Чистим базу, удаляем созданные записи.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1.</t>
     </r>
     <r>
       <rPr>
@@ -173,217 +208,8 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t>В адресной строке вводим адрес www.yandex.ru.</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve"> www.yandex.ru.</t>
-  </si>
-  <si>
-    <t>В адресной строке появляется  www.yandex.ru.</t>
-  </si>
-  <si>
-    <r>
-      <t>3.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">       </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Нажимаем на Enter</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">          </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> </t>
-    </r>
-  </si>
-  <si>
-    <t>Открывается домашняя  страница  Яндекс</t>
-  </si>
-  <si>
-    <r>
-      <t>4.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">       </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>В строке ввода данных для поиска вводим «рецепт пиццы»</t>
-    </r>
-  </si>
-  <si>
-    <t>«Рецепт пиццы»</t>
-  </si>
-  <si>
-    <t>В строке ввода данных поиска появляется  «Рецепт пиццы»</t>
-  </si>
-  <si>
-    <r>
-      <t>5.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">       </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Наживаем на кнопку найти</t>
-    </r>
-  </si>
-  <si>
-    <t>Открывается новая страница,  у  которой,   с левой стороны   перечень сайтов, в которых присутствует  рецепт пиццы, а с правой стороны фотографии пиццы. Общий  поиск рецепта пиццы  показал 6 тыс. результатов.</t>
-  </si>
-  <si>
-    <t>Post conditions</t>
-  </si>
-  <si>
-    <r>
-      <t>1.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">       </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Закрываем страницу с поиском рецепта пиццы. </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>2.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">       </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Закрываем страницу  www.yandex.ru.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>3.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">       </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Закрываем веб-браузер Google Chrome</t>
-    </r>
-  </si>
-  <si>
-    <t>ТЕСТ-КЕЙС</t>
-  </si>
-  <si>
-    <t>High</t>
+      <t xml:space="preserve">Закрываем вкладку поисковика. </t>
+    </r>
   </si>
 </sst>
 </file>
@@ -407,19 +233,19 @@
       <charset val="204"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF333333"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
       <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -430,7 +256,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -467,17 +293,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="medium">
         <color indexed="64"/>
@@ -511,8 +326,12 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top/>
-      <bottom/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -523,38 +342,75 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right/>
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -562,23 +418,66 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="8"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="8"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="5"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="5"/>
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -586,69 +485,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="8"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="8"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -944,10 +797,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:D4"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -958,172 +811,124 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="36.75" customHeight="1" thickBot="1">
-      <c r="A1" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-    </row>
-    <row r="2" spans="1:4" ht="30.75" thickBot="1">
+      <c r="A1" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+    </row>
+    <row r="2" spans="1:4" ht="45.75" thickBot="1">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="18"/>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" s="6"/>
-    </row>
-    <row r="3" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A3" s="7" t="s">
+      <c r="B3" s="16"/>
+      <c r="C3" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="9" t="s">
+      <c r="D3" s="19"/>
+    </row>
+    <row r="4" spans="1:4" ht="61.5" customHeight="1" thickBot="1">
+      <c r="A4" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="14"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="20"/>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A5" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="10"/>
-    </row>
-    <row r="4" spans="1:4" ht="29.25" customHeight="1" thickBot="1">
-      <c r="A4" s="7" t="s">
+      <c r="B5" s="22"/>
+      <c r="C5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="12"/>
-    </row>
-    <row r="5" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A5" s="13" t="s">
+      <c r="D5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="32" t="s">
+    </row>
+    <row r="6" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A6" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="14"/>
+      <c r="C6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="45.75" thickBot="1">
+      <c r="A7" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="B7" s="14"/>
+      <c r="C7" s="31" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="30.75" thickBot="1">
-      <c r="A6" s="15" t="s">
+      <c r="D7" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A8" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="16"/>
-      <c r="C6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="30.75" thickBot="1">
-      <c r="A7" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="16"/>
-      <c r="C7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="45.75" thickBot="1">
-      <c r="A8" s="15" t="s">
-        <v>14</v>
-      </c>
       <c r="B8" s="16"/>
-      <c r="C8" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="30.75" thickBot="1">
-      <c r="A9" s="15" t="s">
+      <c r="C8" s="27"/>
+      <c r="D8" s="17"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="9"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="10"/>
+    </row>
+    <row r="10" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A10" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="16"/>
-      <c r="C9" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="120.75" thickBot="1">
-      <c r="A10" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="16"/>
-      <c r="C10" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A11" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="18"/>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="21"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="26"/>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="22"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="26"/>
-    </row>
-    <row r="14" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A14" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" s="24"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="28"/>
-    </row>
-    <row r="15" spans="1:4" ht="21">
-      <c r="A15" s="29"/>
-    </row>
-    <row r="17" spans="1:1" ht="21">
-      <c r="A17" s="30"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="11"/>
+    </row>
+    <row r="11" spans="1:4" ht="21">
+      <c r="A11" s="5"/>
+    </row>
+    <row r="13" spans="1:4" ht="21">
+      <c r="A13" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C12:D14"/>
+  <mergeCells count="13">
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C9:D10"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C8:D8"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="C3:D4"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
   </mergeCells>
   <pageMargins left="0.49" right="0.5" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
